--- a/biology/Zoologie/Hyphessobrycon_columbianus/Hyphessobrycon_columbianus.xlsx
+++ b/biology/Zoologie/Hyphessobrycon_columbianus/Hyphessobrycon_columbianus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyphessobrycon columbianus
 Le Tétra de Colombie (Hyphessobrycon columbianus), est une espèce de poissons d'eau douce de la famille des Characidés.
-Ce poisson peut être maintenu en aquarium d'environ 100 litres[1], en tenant compte d'une taille d'environ 7 cm par poissons et un groupe d'au moins 6 poissons.
+Ce poisson peut être maintenu en aquarium d'environ 100 litres, en tenant compte d'une taille d'environ 7 cm par poissons et un groupe d'au moins 6 poissons.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre dans le bassin du río Acandi en Colombie.
 </t>
@@ -544,7 +558,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Zarske &amp; Géry, 2002 : Der Blaurote Kolumbien-Salmler. Hyphessobrycon columbianus n. sp. - ein neuer Salmler (Teleostei; Characiformes, Characidae) aus dem kolumbianischen Darien. Das Aquarium n. 391, p. 22-30.</t>
         </is>
